--- a/str_handle/comp_datas.xlsx
+++ b/str_handle/comp_datas.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t xml:space="preserve">data_str</t>
   </si>
@@ -36,7 +36,13 @@
     <t xml:space="preserve">acbde</t>
   </si>
   <si>
+    <t xml:space="preserve">光明区存量排水设施提质增效工程（公明核心片区及白花社区）测绘与评估、勘察设计</t>
+  </si>
+  <si>
     <t xml:space="preserve">abcdef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">罗星楼</t>
   </si>
   <si>
     <t xml:space="preserve">s1_data_str</t>
@@ -162,10 +168,10 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="B3"/>
+      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.5"/>
@@ -198,6 +204,14 @@
         <v>2</v>
       </c>
     </row>
+    <row ht="13.8" r="4">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLinesSet="true"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
@@ -214,10 +228,10 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" activeCellId="0" pane="topLeft" sqref="F11"/>
+      <selection activeCell="E8" activeCellId="0" pane="topLeft" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.5"/>
@@ -244,10 +258,18 @@
     </row>
     <row ht="13.8" r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row ht="13.5" r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -269,7 +291,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="J16" activeCellId="0" pane="topLeft" sqref="J16"/>
+      <selection activeCell="L15" activeCellId="0" pane="topLeft" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.5"/>
@@ -283,22 +305,22 @@
   <sheetData>
     <row ht="13.5" r="1">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row ht="13.8" r="2">

--- a/str_handle/comp_datas.xlsx
+++ b/str_handle/comp_datas.xlsx
@@ -171,7 +171,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
+      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.5"/>
@@ -231,7 +231,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="E8" activeCellId="0" pane="topLeft" sqref="E8"/>
+      <selection activeCell="E8" activeCellId="0" pane="topLeft" sqref="A2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.5"/>
@@ -288,10 +288,10 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="L15" activeCellId="0" pane="topLeft" sqref="L15"/>
+      <selection activeCell="H12" activeCellId="0" pane="topLeft" sqref="A2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.5"/>
@@ -409,6 +409,7 @@
     <row ht="13.8" r="9"/>
     <row ht="13.8" r="10"/>
     <row ht="13.8" r="11"/>
+    <row ht="13.8" r="12"/>
   </sheetData>
   <printOptions gridLinesSet="true"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>

--- a/str_handle/comp_datas.xlsx
+++ b/str_handle/comp_datas.xlsx
@@ -171,7 +171,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A2:H12"/>
+      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A2:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.5"/>
@@ -231,7 +231,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="E8" activeCellId="0" pane="topLeft" sqref="A2:H12"/>
+      <selection activeCell="E8" activeCellId="0" pane="topLeft" sqref="A2:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.5"/>
@@ -291,7 +291,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="H12" activeCellId="0" pane="topLeft" sqref="A2:H12"/>
+      <selection activeCell="I10" activeCellId="0" pane="topLeft" sqref="A2:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.5"/>

--- a/str_handle/comp_datas.xlsx
+++ b/str_handle/comp_datas.xlsx
@@ -171,7 +171,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A2:I10"/>
+      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.5"/>
@@ -231,7 +231,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="E8" activeCellId="0" pane="topLeft" sqref="A2:I10"/>
+      <selection activeCell="E8" activeCellId="0" pane="topLeft" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.5"/>
@@ -291,7 +291,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="I10" activeCellId="0" pane="topLeft" sqref="A2:I10"/>
+      <selection activeCell="M15" activeCellId="0" pane="topLeft" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.5"/>
